--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -566,8 +566,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -602,13 +602,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -622,8 +615,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,7 +640,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,33 +654,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,9 +668,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,11 +684,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,7 +701,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,187 +772,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,13 +1025,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,17 +1055,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,15 +1075,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,165 +1094,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1660,10 +1660,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1828,550 +1828,566 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="11"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
-        <v>3</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="9">
+      <c r="C14" s="9"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="9">
         <v>3</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="11"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="D17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="11"/>
+      <c r="D18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>200</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="B21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="9">
+      <c r="C22" s="9"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="9">
         <v>3</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="9"/>
+      <c r="B23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="11"/>
+      <c r="D24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="9">
+      <c r="C26" s="9"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="9">
         <v>2</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="12">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D28" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="12">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="9">
-        <v>10</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="11"/>
+      <c r="B30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="9">
+        <v>10</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="9">
+      <c r="C32" s="9"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="9">
         <v>10</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="12">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="13">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="12">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
         <v>4</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B34:B35 C2:C3">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B35:B36 C2:C3">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -2380,7 +2396,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 B5:B6">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B11 B12:B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B12 B13:B34">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27435" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -21,14 +21,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+  <connection id="1" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="177">
   <si>
     <t>Step No</t>
   </si>
@@ -564,14 +564,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,152 +594,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,204 +610,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -967,29 +631,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399853511154515"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,10 +661,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,258 +672,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1279,57 +701,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1340,7 +715,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -1355,7 +730,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1370,7 +745,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1654,29 +1029,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A36"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1875,7 +1250,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1913,7 +1288,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1953,7 +1328,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="14"/>
       <c r="E14" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2386,46 +1761,60 @@
       <c r="H36" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B35:B36 C2:C3">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 B5:B6">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B12 B13:B34">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B35:B36 C2:C3"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4 C5 C6 B5:B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[3]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[3]DataList!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9:B12 B13:B34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2433,7 +1822,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2441,7 +1830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -2449,7 +1838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2457,7 +1846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +1854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2473,7 +1862,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2481,7 +1870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2500,7 +1889,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -2508,7 +1897,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2516,57 +1905,57 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:4">
       <c r="C12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:4">
       <c r="C13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:4">
       <c r="C19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:4">
       <c r="C20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:4">
       <c r="C21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
         <v>101</v>
       </c>
@@ -2579,47 +1968,47 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:4">
       <c r="C24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:4">
       <c r="C25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:4">
       <c r="C27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:4">
       <c r="C30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:4">
       <c r="C31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:4">
       <c r="C32" t="s">
         <v>111</v>
       </c>
@@ -2784,32 +2173,32 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:4">
       <c r="C65" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:4">
       <c r="C66" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:4">
       <c r="C67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:4">
       <c r="C68" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:4">
       <c r="C69" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:4">
       <c r="C70" t="s">
         <v>146</v>
       </c>
@@ -2822,7 +2211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:4">
       <c r="C72" t="s">
         <v>148</v>
       </c>
@@ -2835,22 +2224,22 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:4">
       <c r="C74" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:4">
       <c r="C75" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:4">
       <c r="C76" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:4">
       <c r="C77" t="s">
         <v>153</v>
       </c>
@@ -2871,7 +2260,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:4">
       <c r="C80" t="s">
         <v>156</v>
       </c>
@@ -2987,9 +2376,8 @@
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -21,14 +21,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>Step No</t>
   </si>
@@ -132,313 +132,295 @@
     <t>Create Expenditure clicked</t>
   </si>
   <si>
-    <t>EXPE_TYPE_OF_SERVICE</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>Type search type of service</t>
-  </si>
-  <si>
-    <t>Type of service entered</t>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Date selected</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on next button</t>
+  </si>
+  <si>
+    <t>Next page navigated successfully</t>
+  </si>
+  <si>
+    <t>TypeDynamicValue</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>Click ok to Pcase alert</t>
+  </si>
+  <si>
+    <t>Pcase alert clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>SUBMITTED_EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Verify Submitted expenditures</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>DismissAlert</t>
+  </si>
+  <si>
+    <t>AlertDismiss</t>
+  </si>
+  <si>
+    <t>PromptBox</t>
+  </si>
+  <si>
+    <t>GenerateAlert</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>GetWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultWindow</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultContent</t>
+  </si>
+  <si>
+    <t>GetAutoIt</t>
+  </si>
+  <si>
+    <t>ScrollDown</t>
+  </si>
+  <si>
+    <t>ScrollUp</t>
+  </si>
+  <si>
+    <t>ScrollBottom</t>
+  </si>
+  <si>
+    <t>KeyboardPageUp</t>
+  </si>
+  <si>
+    <t>KeyboardPageDown</t>
+  </si>
+  <si>
+    <t>KeyboardEnd</t>
+  </si>
+  <si>
+    <t>KeyboardTab</t>
+  </si>
+  <si>
+    <t>PageMaximize</t>
   </si>
   <si>
     <t>Enter</t>
-  </si>
-  <si>
-    <t>Select type of service</t>
-  </si>
-  <si>
-    <t>Type of service selected</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Date selected</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on next button</t>
-  </si>
-  <si>
-    <t>Next page navigated successfully</t>
-  </si>
-  <si>
-    <t>TypeDynamicValue</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>DismissAlert</t>
-  </si>
-  <si>
-    <t>AlertDismiss</t>
-  </si>
-  <si>
-    <t>PromptBox</t>
-  </si>
-  <si>
-    <t>GenerateAlert</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>GetWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultWindow</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultContent</t>
-  </si>
-  <si>
-    <t>GetAutoIt</t>
-  </si>
-  <si>
-    <t>ScrollDown</t>
-  </si>
-  <si>
-    <t>ScrollUp</t>
-  </si>
-  <si>
-    <t>ScrollBottom</t>
-  </si>
-  <si>
-    <t>KeyboardPageUp</t>
-  </si>
-  <si>
-    <t>KeyboardPageDown</t>
-  </si>
-  <si>
-    <t>KeyboardEnd</t>
-  </si>
-  <si>
-    <t>KeyboardTab</t>
-  </si>
-  <si>
-    <t>PageMaximize</t>
   </si>
   <si>
     <t>KeyboardArrowUp</t>
@@ -564,8 +546,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,8 +582,152 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,18 +742,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
-        <bgColor theme="4" tint="0.79992065187536243"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor theme="4" tint="0.799920651875362"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -631,29 +949,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39982299264503923"/>
+        <color theme="4" tint="0.399822992645039"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +979,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399914548173467"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,16 +990,258 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -701,10 +1261,57 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -715,7 +1322,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -730,7 +1337,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -745,7 +1352,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1029,29 +1636,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="A11:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1279,7 +1886,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1298,1076 +1905,1001 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="11"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="9">
-        <v>4</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="11"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="D16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="11"/>
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="9">
-        <v>200</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="G21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="9">
-        <v>3</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="B23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="12">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="11"/>
+      <c r="D25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="9">
-        <v>2</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="12">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="9">
+        <v>10</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="B28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="9">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="12">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="9">
-        <v>10</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
+      <c r="C31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="G31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="9">
-        <v>10</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="12">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="13">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="12">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
         <v>4</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B35:B36 C2:C3"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B4 B7 B32:B33 C2:C3">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 B5:B6">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9:B12 B13:B31">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[2]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4 C5 C6 B5:B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[3]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[3]DataList!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B9:B12 B13:B34</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" t="s">
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
-      <c r="C25" t="s">
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2376,8 +2908,9 @@
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
